--- a/Design/타워 기획.xlsx
+++ b/Design/타워 기획.xlsx
@@ -5,18 +5,20 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신동훈\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신동훈\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16873CB-B283-41C7-935F-B4AF53CB4475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3845DE21-A5FC-441C-AD53-C82DE0B867F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{BD4E2F88-C1CE-4A13-90B2-E2201F11AEFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{BD4E2F88-C1CE-4A13-90B2-E2201F11AEFC}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="3" r:id="rId1"/>
     <sheet name="공통개념" sheetId="1" r:id="rId2"/>
     <sheet name="타워종류" sheetId="2" r:id="rId3"/>
     <sheet name="개발일정" sheetId="4" r:id="rId4"/>
+    <sheet name="공통개념 데이터" sheetId="5" r:id="rId5"/>
+    <sheet name="타워 데이터" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="227">
   <si>
     <t>타워 기획서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -681,6 +683,282 @@
   </si>
   <si>
     <t>공격로에 그림처럼 레이저 공격을 함, 빨간 직사각형의 범위만큼 앞에서 뒤로 긁음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 타워 공격속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackPropertyID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackPropertyName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 특화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어구 특화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 관통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타워의 공격력 x {0.01x(100-방어력)} 만큼 대상에게 데미지를 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력에 타워의 공격력 x 1.2 x{0.01x(100-방어력)} 만큼 대상에게 데미지를 준다, 방어구에는 기본 알고리즘과 같다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어구에 타워의 공격력 x 1.2 x{0.01x(100-방어력)}만큼 대상에게 데미지를 준다, 체력에는 기본 알고리즘과 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타워의 공격력만큼 대상에게 데미지를 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 타워의 상호작용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InteractionID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InteractionName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※수치는 추후에 변경될 수 있습니다※</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타워 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타워 판매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 우선적 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어구 우선적 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 우선적 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마우스 포인터가 과녁모양으로 바뀌며 바뀐 상태에서 몬스터 위에 놓고 좌클릭을 하면 몬스터가 타겟으로 지정된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타워의 스탯이 한 단계 위 단계의 수치로 변한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드를 (타워 최초 설치 비용 + 업그레이드 하는데 사용한 총 비용) x 0.50 만큼 소모하고 타워를 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타워를 제거하고 골드를 (타워 최초 설치 비용 + 업그레이드 하는데 사용한 총 비용) x 0.60 만큼 제공한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어구를 소유하지 않은 대상을 우선적으로 공격한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어구를 소유한 대상을 우선적으로 공격한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력이 높은 대상을 우선적으로 공격한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟 지정 버튼이 체력 우선적 공격 버튼으로, 업그레이드 버튼이 방어구 우선적 공격 버튼으로, 타워 이동버튼이 방어력 우선적 공격 버튼으로, 타워 판매 버튼이 취소 버튼으로 바뀐다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 우선적 공격 버튼이 타겟 지정 버튼으로, 방어구 우선적 공격 버튼이 업그레이드 버튼으로, 방어력 우선적 공격 버튼이 타워 이동버튼으로, 취소 버튼이 타워 판배 버튼으로 바뀐다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 타워 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사거리 내 몬스터들에게 데미지를 주는 타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사거리 내 타워들에게 버프를 부여하는 타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사거리 내 몬스터들에게 디버프를 부여하는 타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자원을 채굴하는 타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자원 타일에만 설치 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SizeID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SizeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1X1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2X2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3X3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타워의 크기가 가로 1타일, 세로 1타일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타워의 크기가 가로 2타일, 세로 2타일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타워의 크기가 가로 3타일, 세로 3타일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackStat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedStat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackStat +5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int per second</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통개념 데이터, 타워 데이터 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.8.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 타워 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 공통개념 데이터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -796,7 +1074,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1278,6 +1556,54 @@
         <color auto="1"/>
       </top>
       <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1292,7 +1618,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1407,9 +1733,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1425,15 +1748,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1448,6 +1762,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1524,6 +1841,48 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2705,10 +3064,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7E12A9-0308-45F8-A454-43E15D132D16}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2718,30 +3077,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="I1" s="55" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="I1" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
     </row>
     <row r="2" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="38" t="s">
         <v>49</v>
       </c>
       <c r="K2" s="11"/>
@@ -2816,6 +3175,19 @@
       <c r="N5" s="14"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7" t="s">
+        <v>224</v>
+      </c>
       <c r="J6" s="13"/>
       <c r="K6" s="37" t="s">
         <v>52</v>
@@ -2835,7 +3207,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J8" s="13"/>
-      <c r="K8" s="38" t="s">
+      <c r="K8" s="37" t="s">
         <v>109</v>
       </c>
       <c r="L8" s="9"/>
@@ -2847,10 +3219,12 @@
       <c r="K9" s="37" t="s">
         <v>110</v>
       </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
       <c r="N9" s="14"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="J10" s="40" t="s">
+      <c r="J10" s="39" t="s">
         <v>55</v>
       </c>
       <c r="K10" s="9"/>
@@ -2858,16 +3232,34 @@
       <c r="M10" s="9"/>
       <c r="N10" s="14"/>
     </row>
-    <row r="11" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J11" s="41" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J11" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="17"/>
-    </row>
-    <row r="12" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J12" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="14"/>
+    </row>
+    <row r="13" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J13" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="17"/>
+    </row>
+    <row r="14" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
@@ -2885,6 +3277,8 @@
     <hyperlink ref="J2" location="공통개념!A1" display="1. 공통개념" xr:uid="{AEB08AEC-BAC3-42DD-AEE7-859AC9D655B4}"/>
     <hyperlink ref="J10" location="타워종류!A1" display="2. 타워종류" xr:uid="{2A2D84B6-204D-4A85-8D47-CD0CFB6CD328}"/>
     <hyperlink ref="J11" location="개발일정!A1" display="3. 개발일정" xr:uid="{B69C82FF-8E60-4938-B721-2AB0ABEE3F1D}"/>
+    <hyperlink ref="J12" location="'공통개념 데이터'!A1" display="4. 공통개념 데이터" xr:uid="{2005516B-1C66-4C36-AAA4-7A43E002B1BF}"/>
+    <hyperlink ref="J13" location="'타워 데이터'!A1" display="5. 타워 데이터" xr:uid="{C0239287-3761-4143-988C-E150E2C7CFF8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2895,36 +3289,36 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z187"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I135" sqref="I134:I135"/>
+    <sheetView showGridLines="0" topLeftCell="A120" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18"/>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
       <c r="V1" s="18"/>
       <c r="W1" s="18"/>
       <c r="X1" s="18"/>
@@ -6397,1002 +6791,1002 @@
   <dimension ref="B1:U43"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:P42"/>
+      <selection activeCell="Q6" sqref="Q6:U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
     </row>
     <row r="2" spans="2:21" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="74" t="s">
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="74" t="s">
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="77"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="74"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B3" s="50">
+      <c r="B3" s="46">
         <v>1</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="2" t="s">
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="69"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="71"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="68"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
-      <c r="U3" s="51"/>
+      <c r="U3" s="47"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B4" s="50">
+      <c r="B4" s="46">
         <v>2</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="69" t="s">
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="71"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="68"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="51"/>
+      <c r="U4" s="47"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B5" s="50">
+      <c r="B5" s="46">
         <v>3</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="69" t="s">
+      <c r="D5" s="67"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="71"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="51"/>
+      <c r="U5" s="47"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B6" s="50">
+      <c r="B6" s="46">
         <v>4</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="69" t="s">
+      <c r="D6" s="67"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="71"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="68"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="51"/>
+      <c r="U6" s="47"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B7" s="57"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="59"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="56"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="51"/>
+      <c r="U7" s="47"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B8" s="60"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="62"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="59"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="51"/>
+      <c r="U8" s="47"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="62"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="59"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="51"/>
+      <c r="U9" s="47"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="62"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="59"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="51"/>
+      <c r="U10" s="47"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="62"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="59"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-      <c r="U11" s="51"/>
+      <c r="U11" s="47"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B12" s="60"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="62"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="59"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
-      <c r="U12" s="51"/>
+      <c r="U12" s="47"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="62"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="59"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="51"/>
+      <c r="U13" s="47"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B14" s="60"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="62"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="59"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-      <c r="U14" s="51"/>
+      <c r="U14" s="47"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B15" s="66"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="68"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="65"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="51"/>
+      <c r="U15" s="47"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B16" s="50">
+      <c r="B16" s="46">
         <v>5</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="2" t="s">
+      <c r="D16" s="67"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="48"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="68"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-      <c r="U16" s="51"/>
+      <c r="U16" s="47"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B17" s="50">
+      <c r="B17" s="46">
         <v>6</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="69" t="s">
+      <c r="D17" s="67"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="71"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="68"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-      <c r="U17" s="51"/>
+      <c r="U17" s="47"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B18" s="50">
+      <c r="B18" s="46">
         <v>7</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="69" t="s">
+      <c r="D18" s="67"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="71"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="68"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-      <c r="U18" s="51"/>
+      <c r="U18" s="47"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="59"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="56"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-      <c r="U19" s="51"/>
+      <c r="U19" s="47"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B20" s="60"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="62"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="59"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-      <c r="U20" s="51"/>
+      <c r="U20" s="47"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B21" s="60"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="62"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="59"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-      <c r="U21" s="51"/>
+      <c r="U21" s="47"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B22" s="60"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="62"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="59"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
-      <c r="U22" s="51"/>
+      <c r="U22" s="47"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B23" s="60"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="62"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="59"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-      <c r="U23" s="51"/>
+      <c r="U23" s="47"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B24" s="60"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="62"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="59"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
-      <c r="U24" s="51"/>
+      <c r="U24" s="47"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B25" s="60"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="62"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="59"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
-      <c r="U25" s="51"/>
+      <c r="U25" s="47"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B26" s="60"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="62"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="59"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
-      <c r="U26" s="51"/>
+      <c r="U26" s="47"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B27" s="60"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="62"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="59"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
-      <c r="U27" s="51"/>
+      <c r="U27" s="47"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B28" s="66"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="67"/>
-      <c r="P28" s="68"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="65"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
-      <c r="U28" s="51"/>
+      <c r="U28" s="47"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B29" s="50">
+      <c r="B29" s="46">
         <v>8</v>
       </c>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="69" t="s">
+      <c r="D29" s="67"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="70"/>
-      <c r="P29" s="71"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="68"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
-      <c r="U29" s="51"/>
+      <c r="U29" s="47"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B30" s="50">
+      <c r="B30" s="46">
         <v>9</v>
       </c>
-      <c r="C30" s="69" t="s">
+      <c r="C30" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="D30" s="70"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="69" t="s">
+      <c r="D30" s="67"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="70"/>
-      <c r="P30" s="71"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="68"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
-      <c r="U30" s="51"/>
+      <c r="U30" s="47"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B31" s="57"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="59"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="56"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
-      <c r="U31" s="51"/>
+      <c r="U31" s="47"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="62"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="59"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
-      <c r="U32" s="51"/>
+      <c r="U32" s="47"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B33" s="60"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="62"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="59"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
-      <c r="U33" s="51"/>
+      <c r="U33" s="47"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B34" s="60"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="62"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="59"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
-      <c r="U34" s="51"/>
+      <c r="U34" s="47"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B35" s="60"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="61"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="61"/>
-      <c r="N35" s="61"/>
-      <c r="O35" s="61"/>
-      <c r="P35" s="62"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="59"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
-      <c r="U35" s="51"/>
+      <c r="U35" s="47"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B36" s="60"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="61"/>
-      <c r="M36" s="61"/>
-      <c r="N36" s="61"/>
-      <c r="O36" s="61"/>
-      <c r="P36" s="62"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="58"/>
+      <c r="N36" s="58"/>
+      <c r="O36" s="58"/>
+      <c r="P36" s="59"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
-      <c r="U36" s="51"/>
+      <c r="U36" s="47"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B37" s="60"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
-      <c r="L37" s="61"/>
-      <c r="M37" s="61"/>
-      <c r="N37" s="61"/>
-      <c r="O37" s="61"/>
-      <c r="P37" s="62"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="58"/>
+      <c r="N37" s="58"/>
+      <c r="O37" s="58"/>
+      <c r="P37" s="59"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
-      <c r="U37" s="51"/>
+      <c r="U37" s="47"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B38" s="60"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="61"/>
-      <c r="N38" s="61"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="62"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="58"/>
+      <c r="N38" s="58"/>
+      <c r="O38" s="58"/>
+      <c r="P38" s="59"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
-      <c r="U38" s="51"/>
+      <c r="U38" s="47"/>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B39" s="60"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="61"/>
-      <c r="L39" s="61"/>
-      <c r="M39" s="61"/>
-      <c r="N39" s="61"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="62"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="59"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
-      <c r="U39" s="51"/>
+      <c r="U39" s="47"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B40" s="60"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="61"/>
-      <c r="L40" s="61"/>
-      <c r="M40" s="61"/>
-      <c r="N40" s="61"/>
-      <c r="O40" s="61"/>
-      <c r="P40" s="62"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="58"/>
+      <c r="O40" s="58"/>
+      <c r="P40" s="59"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
-      <c r="U40" s="51"/>
+      <c r="U40" s="47"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B41" s="60"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="61"/>
-      <c r="L41" s="61"/>
-      <c r="M41" s="61"/>
-      <c r="N41" s="61"/>
-      <c r="O41" s="61"/>
-      <c r="P41" s="62"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
+      <c r="N41" s="58"/>
+      <c r="O41" s="58"/>
+      <c r="P41" s="59"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
-      <c r="U41" s="51"/>
+      <c r="U41" s="47"/>
     </row>
     <row r="42" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="63"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="64"/>
-      <c r="K42" s="64"/>
-      <c r="L42" s="64"/>
-      <c r="M42" s="64"/>
-      <c r="N42" s="64"/>
-      <c r="O42" s="64"/>
-      <c r="P42" s="65"/>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="52"/>
-      <c r="S42" s="52"/>
-      <c r="T42" s="52"/>
-      <c r="U42" s="53"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="61"/>
+      <c r="N42" s="61"/>
+      <c r="O42" s="61"/>
+      <c r="P42" s="62"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="48"/>
+      <c r="U42" s="49"/>
     </row>
     <row r="43" spans="2:21" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
     <mergeCell ref="B7:P15"/>
     <mergeCell ref="B1:U1"/>
     <mergeCell ref="C2:E2"/>
@@ -7402,15 +7796,16 @@
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G3:P3"/>
     <mergeCell ref="F4:P4"/>
     <mergeCell ref="F5:P5"/>
     <mergeCell ref="F6:P6"/>
+    <mergeCell ref="F3:P3"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="F17:P17"/>
     <mergeCell ref="F18:P18"/>
+    <mergeCell ref="F16:P16"/>
     <mergeCell ref="B31:P42"/>
     <mergeCell ref="B19:P28"/>
     <mergeCell ref="F29:P29"/>
@@ -7429,290 +7824,292 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:I25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="42"/>
-      <c r="C2" s="42" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="41" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="41">
         <v>22</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="41">
         <v>23</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="41">
         <v>24</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="41">
         <v>25</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="41">
         <v>26</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="41">
         <v>27</v>
       </c>
-      <c r="I3" s="42">
+      <c r="I3" s="41">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="41">
         <v>29</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="41">
         <v>30</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="41">
         <v>31</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="41">
         <v>1</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="41">
         <v>2</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="41">
         <v>3</v>
       </c>
-      <c r="I4" s="42">
+      <c r="I4" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="41">
         <v>5</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="41">
         <v>6</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="41">
         <v>7</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="41">
         <v>8</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="42">
         <v>9</v>
       </c>
-      <c r="H5" s="43">
+      <c r="H5" s="42">
         <v>10</v>
       </c>
-      <c r="I5" s="43">
+      <c r="I5" s="42">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="80"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="77"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="45">
+      <c r="B8" s="44">
         <v>22</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="80"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="77"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="45">
+      <c r="B9" s="44">
         <v>23</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="80"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="77"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="45">
+      <c r="B10" s="44">
         <v>24</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="80"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="77"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="45">
+      <c r="B11" s="44">
         <v>25</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="80"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="77"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="45">
+      <c r="B12" s="44">
         <v>26</v>
       </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="80"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="77"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="45">
+      <c r="B13" s="44">
         <v>27</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="80"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="77"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="45">
+      <c r="B14" s="44">
         <v>28</v>
       </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="80"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="77"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="45">
+      <c r="B15" s="44">
         <v>29</v>
       </c>
-      <c r="C15" s="78" t="s">
+      <c r="C15" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="80"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="77"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="45">
+      <c r="B16" s="44">
         <v>30</v>
       </c>
-      <c r="C16" s="78"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="80"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="77"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="45">
+      <c r="B17" s="44">
         <v>31</v>
       </c>
-      <c r="C17" s="78"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="80"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="77"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="45">
+      <c r="B18" s="44">
         <v>1</v>
       </c>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="80"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="77"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="45">
+      <c r="B19" s="44">
         <v>2</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="80"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="77"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="45">
+      <c r="B20" s="44">
         <v>3</v>
       </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="80"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="77"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="45">
+      <c r="B21" s="44">
         <v>4</v>
       </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="80"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="77"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="45">
+      <c r="B22" s="44">
         <v>5</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="80"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="45">
+      <c r="B23" s="44">
         <v>6</v>
       </c>
-      <c r="C23" s="78"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="80"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="77"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="45">
+      <c r="B24" s="44">
         <v>7</v>
       </c>
-      <c r="C24" s="78"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="80"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="77"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="45">
+      <c r="B25" s="44">
         <v>8</v>
       </c>
-      <c r="C25" s="78"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="80"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -7739,4 +8136,1222 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F164C607-0E5A-46EA-AF33-69DD52063EBB}">
+  <dimension ref="A1:Z47"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:B43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="70"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="79"/>
+      <c r="C16" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="70"/>
+      <c r="F16" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="50" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A17" s="79">
+        <v>0</v>
+      </c>
+      <c r="B17" s="79"/>
+      <c r="C17" s="70" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="70"/>
+      <c r="F17" s="80" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="81"/>
+      <c r="H17" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A18" s="79">
+        <v>1</v>
+      </c>
+      <c r="B18" s="79"/>
+      <c r="C18" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="70"/>
+      <c r="F18" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" s="81"/>
+      <c r="H18" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A19" s="79">
+        <v>2</v>
+      </c>
+      <c r="B19" s="79"/>
+      <c r="C19" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="70"/>
+      <c r="F19" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" s="82"/>
+      <c r="H19" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78"/>
+      <c r="S19" s="2"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A20" s="79">
+        <v>3</v>
+      </c>
+      <c r="B20" s="79"/>
+      <c r="C20" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="70"/>
+      <c r="F20" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" s="82"/>
+      <c r="H20" s="78" t="s">
+        <v>172</v>
+      </c>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="2"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A23" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="70"/>
+      <c r="C23" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="70"/>
+      <c r="F23" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23" s="68"/>
+      <c r="H23" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="70"/>
+      <c r="R23" s="70"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="70"/>
+      <c r="V23" s="70"/>
+      <c r="W23" s="70"/>
+      <c r="X23" s="70"/>
+      <c r="Y23" s="70"/>
+      <c r="Z23" s="50" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" s="79"/>
+      <c r="C24" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="70"/>
+      <c r="F24" s="86" t="s">
+        <v>177</v>
+      </c>
+      <c r="G24" s="87"/>
+      <c r="H24" s="78" t="s">
+        <v>185</v>
+      </c>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="78"/>
+      <c r="S24" s="78"/>
+      <c r="T24" s="78"/>
+      <c r="U24" s="78"/>
+      <c r="V24" s="78"/>
+      <c r="W24" s="78"/>
+      <c r="X24" s="78"/>
+      <c r="Y24" s="78"/>
+      <c r="Z24" s="90"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A25" s="83">
+        <v>0</v>
+      </c>
+      <c r="B25" s="84"/>
+      <c r="C25" s="70" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" s="70"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="78"/>
+      <c r="O25" s="78"/>
+      <c r="P25" s="78"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="78"/>
+      <c r="S25" s="78"/>
+      <c r="T25" s="78"/>
+      <c r="U25" s="78"/>
+      <c r="V25" s="78"/>
+      <c r="W25" s="78"/>
+      <c r="X25" s="78"/>
+      <c r="Y25" s="78"/>
+      <c r="Z25" s="91"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A26" s="83">
+        <v>1</v>
+      </c>
+      <c r="B26" s="84"/>
+      <c r="C26" s="70" t="s">
+        <v>178</v>
+      </c>
+      <c r="D26" s="70"/>
+      <c r="F26" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="78"/>
+      <c r="S26" s="78"/>
+      <c r="T26" s="78"/>
+      <c r="U26" s="78"/>
+      <c r="V26" s="78"/>
+      <c r="W26" s="78"/>
+      <c r="X26" s="78"/>
+      <c r="Y26" s="78"/>
+      <c r="Z26" s="2"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A27" s="83">
+        <v>2</v>
+      </c>
+      <c r="B27" s="84"/>
+      <c r="C27" s="70" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" s="70"/>
+      <c r="F27" s="78" t="s">
+        <v>179</v>
+      </c>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="78"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="78"/>
+      <c r="Y27" s="78"/>
+      <c r="Z27" s="2"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A28" s="83">
+        <v>3</v>
+      </c>
+      <c r="B28" s="84"/>
+      <c r="C28" s="70" t="s">
+        <v>180</v>
+      </c>
+      <c r="D28" s="70"/>
+      <c r="F28" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="78"/>
+      <c r="S28" s="78"/>
+      <c r="T28" s="78"/>
+      <c r="U28" s="78"/>
+      <c r="V28" s="78"/>
+      <c r="W28" s="78"/>
+      <c r="X28" s="78"/>
+      <c r="Y28" s="78"/>
+      <c r="Z28" s="2"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A29" s="83">
+        <v>4</v>
+      </c>
+      <c r="B29" s="84"/>
+      <c r="C29" s="70" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" s="70"/>
+      <c r="F29" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="78"/>
+      <c r="U29" s="78"/>
+      <c r="V29" s="78"/>
+      <c r="W29" s="78"/>
+      <c r="X29" s="78"/>
+      <c r="Y29" s="78"/>
+      <c r="Z29" s="2"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A30" s="83">
+        <v>5</v>
+      </c>
+      <c r="B30" s="84"/>
+      <c r="C30" s="70" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="70"/>
+      <c r="F30" s="78" t="s">
+        <v>182</v>
+      </c>
+      <c r="G30" s="78"/>
+      <c r="H30" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="85"/>
+      <c r="O30" s="85"/>
+      <c r="P30" s="85"/>
+      <c r="Q30" s="85"/>
+      <c r="R30" s="85"/>
+      <c r="S30" s="85"/>
+      <c r="T30" s="85"/>
+      <c r="U30" s="85"/>
+      <c r="V30" s="85"/>
+      <c r="W30" s="85"/>
+      <c r="X30" s="85"/>
+      <c r="Y30" s="85"/>
+      <c r="Z30" s="2"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A31" s="83">
+        <v>6</v>
+      </c>
+      <c r="B31" s="84"/>
+      <c r="C31" s="70" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="70"/>
+      <c r="F31" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="G31" s="78"/>
+      <c r="H31" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="85"/>
+      <c r="N31" s="85"/>
+      <c r="O31" s="85"/>
+      <c r="P31" s="85"/>
+      <c r="Q31" s="85"/>
+      <c r="R31" s="85"/>
+      <c r="S31" s="85"/>
+      <c r="T31" s="85"/>
+      <c r="U31" s="85"/>
+      <c r="V31" s="85"/>
+      <c r="W31" s="85"/>
+      <c r="X31" s="85"/>
+      <c r="Y31" s="85"/>
+      <c r="Z31" s="2"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A32" s="83">
+        <v>7</v>
+      </c>
+      <c r="B32" s="84"/>
+      <c r="C32" s="70" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32" s="70"/>
+      <c r="F32" s="78" t="s">
+        <v>184</v>
+      </c>
+      <c r="G32" s="78"/>
+      <c r="H32" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="I32" s="85"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85"/>
+      <c r="N32" s="85"/>
+      <c r="O32" s="85"/>
+      <c r="P32" s="85"/>
+      <c r="Q32" s="85"/>
+      <c r="R32" s="85"/>
+      <c r="S32" s="85"/>
+      <c r="T32" s="85"/>
+      <c r="U32" s="85"/>
+      <c r="V32" s="85"/>
+      <c r="W32" s="85"/>
+      <c r="X32" s="85"/>
+      <c r="Y32" s="85"/>
+      <c r="Z32" s="2"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="70" t="s">
+        <v>195</v>
+      </c>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70" t="s">
+        <v>196</v>
+      </c>
+      <c r="D35" s="70"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36" s="79"/>
+      <c r="C36" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" s="70"/>
+      <c r="F36" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="70"/>
+      <c r="N36" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="O36" s="70"/>
+      <c r="P36" s="70"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="79">
+        <v>0</v>
+      </c>
+      <c r="B37" s="79"/>
+      <c r="C37" s="70" t="s">
+        <v>197</v>
+      </c>
+      <c r="D37" s="70"/>
+      <c r="F37" s="70" t="s">
+        <v>197</v>
+      </c>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="70"/>
+      <c r="P37" s="70"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="79">
+        <v>1</v>
+      </c>
+      <c r="B38" s="79"/>
+      <c r="C38" s="70" t="s">
+        <v>198</v>
+      </c>
+      <c r="D38" s="70"/>
+      <c r="F38" s="70" t="s">
+        <v>198</v>
+      </c>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="70"/>
+      <c r="P38" s="70"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="79">
+        <v>2</v>
+      </c>
+      <c r="B39" s="79"/>
+      <c r="C39" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="D39" s="70"/>
+      <c r="F39" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="70"/>
+      <c r="O39" s="70"/>
+      <c r="P39" s="70"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="79">
+        <v>3</v>
+      </c>
+      <c r="B40" s="79"/>
+      <c r="C40" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" s="70"/>
+      <c r="F40" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70" t="s">
+        <v>203</v>
+      </c>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="70"/>
+      <c r="N40" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="O40" s="70"/>
+      <c r="P40" s="70"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="B43" s="70"/>
+      <c r="C43" s="70" t="s">
+        <v>207</v>
+      </c>
+      <c r="D43" s="70"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" s="79"/>
+      <c r="C44" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" s="70"/>
+      <c r="F44" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="G44" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="H44" s="70"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="79">
+        <v>0</v>
+      </c>
+      <c r="B45" s="79"/>
+      <c r="C45" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="D45" s="70"/>
+      <c r="F45" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="G45" s="78" t="s">
+        <v>211</v>
+      </c>
+      <c r="H45" s="78"/>
+      <c r="I45" s="78"/>
+      <c r="J45" s="78"/>
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="79">
+        <v>1</v>
+      </c>
+      <c r="B46" s="79"/>
+      <c r="C46" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="D46" s="70"/>
+      <c r="F46" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="G46" s="78" t="s">
+        <v>212</v>
+      </c>
+      <c r="H46" s="78"/>
+      <c r="I46" s="78"/>
+      <c r="J46" s="78"/>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="79">
+        <v>2</v>
+      </c>
+      <c r="B47" s="79"/>
+      <c r="C47" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="D47" s="70"/>
+      <c r="F47" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="G47" s="78" t="s">
+        <v>213</v>
+      </c>
+      <c r="H47" s="78"/>
+      <c r="I47" s="78"/>
+      <c r="J47" s="78"/>
+      <c r="K47" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="101">
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="H31:Y31"/>
+    <mergeCell ref="H32:Y32"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="H23:Y23"/>
+    <mergeCell ref="H24:Y24"/>
+    <mergeCell ref="H25:Y25"/>
+    <mergeCell ref="H26:Y26"/>
+    <mergeCell ref="H27:Y27"/>
+    <mergeCell ref="H28:Y28"/>
+    <mergeCell ref="H29:Y29"/>
+    <mergeCell ref="H30:Y30"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H16:R16"/>
+    <mergeCell ref="H17:R17"/>
+    <mergeCell ref="H18:R18"/>
+    <mergeCell ref="H19:R19"/>
+    <mergeCell ref="H20:R20"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91169CA6-6A40-463A-A1F2-C9406B6F6D6B}">
+  <dimension ref="A3:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70" t="s">
+        <v>215</v>
+      </c>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70" t="s">
+        <v>218</v>
+      </c>
+      <c r="O3" s="70"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="50">
+        <v>0</v>
+      </c>
+      <c r="B5" s="70">
+        <v>0</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70">
+        <v>0</v>
+      </c>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70">
+        <v>0</v>
+      </c>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70">
+        <v>25</v>
+      </c>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70" t="s">
+        <v>219</v>
+      </c>
+      <c r="O5" s="70"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>